--- a/ComparationSerialization.xlsx
+++ b/ComparationSerialization.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="78">
   <si>
     <t>Experiment name</t>
   </si>
@@ -68,139 +68,184 @@
     <t>0</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>17</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>100000</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>89</t>
+    <t>7</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>1000000</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>1155</t>
+  </si>
+  <si>
+    <t>1464</t>
+  </si>
+  <si>
+    <t>1326</t>
+  </si>
+  <si>
+    <t>909</t>
+  </si>
+  <si>
+    <t>1246</t>
+  </si>
+  <si>
+    <t>1019</t>
+  </si>
+  <si>
+    <t>testprject.jsonSerializers.KotlinSerialization flat structure</t>
+  </si>
+  <si>
+    <t>testprject.jsonSerializers.KotlinSerialization</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>84</t>
   </si>
   <si>
     <t>128</t>
   </si>
   <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>1000000</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>193</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>1156</t>
-  </si>
-  <si>
-    <t>1587</t>
-  </si>
-  <si>
-    <t>1339</t>
-  </si>
-  <si>
-    <t>906</t>
-  </si>
-  <si>
-    <t>1220</t>
-  </si>
-  <si>
-    <t>1045</t>
-  </si>
-  <si>
-    <t>testprject.jsonSerializers.KotlinSerialization flat structure</t>
-  </si>
-  <si>
-    <t>testprject.jsonSerializers.KotlinSerialization</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>10</t>
+    <t>106</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>625</t>
+  </si>
+  <si>
+    <t>759</t>
+  </si>
+  <si>
+    <t>676</t>
+  </si>
+  <si>
+    <t>884</t>
+  </si>
+  <si>
+    <t>1325</t>
+  </si>
+  <si>
+    <t>1025</t>
+  </si>
+  <si>
+    <t>testprject.jsonSerializers.MoshiSerialization flat structure</t>
+  </si>
+  <si>
+    <t>testprject.jsonSerializers.MoshiSerialization</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>133</t>
   </si>
   <si>
     <t>61</t>
   </si>
   <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>602</t>
-  </si>
-  <si>
-    <t>753</t>
-  </si>
-  <si>
-    <t>645</t>
-  </si>
-  <si>
-    <t>914</t>
-  </si>
-  <si>
-    <t>1317</t>
-  </si>
-  <si>
-    <t>1069</t>
+    <t>174</t>
+  </si>
+  <si>
+    <t>859</t>
+  </si>
+  <si>
+    <t>1113</t>
+  </si>
+  <si>
+    <t>981</t>
+  </si>
+  <si>
+    <t>1304</t>
+  </si>
+  <si>
+    <t>1680</t>
+  </si>
+  <si>
+    <t>1450</t>
   </si>
 </sst>
 </file>
@@ -245,7 +290,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B1:N7"/>
+  <dimension ref="B1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -350,28 +395,28 @@
         <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N3" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -444,10 +489,10 @@
         <v>45</v>
       </c>
       <c r="K5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M5" t="s">
         <v>46</v>
@@ -482,7 +527,7 @@
         <v>49</v>
       </c>
       <c r="J6" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="K6" t="s">
         <v>50</v>
@@ -511,31 +556,154 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
         <v>54</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>55</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>56</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>57</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>58</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>59</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>60</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>61</v>
       </c>
-      <c r="N7" t="s">
+    </row>
+    <row r="8">
+      <c r="B8" t="s">
         <v>62</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" t="s">
+        <v>67</v>
+      </c>
+      <c r="M9" t="s">
+        <v>68</v>
+      </c>
+      <c r="N9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" t="s">
+        <v>74</v>
+      </c>
+      <c r="L10" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10" t="s">
+        <v>76</v>
+      </c>
+      <c r="N10" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
